--- a/GUI + Reviews/202512/CAC Family.xlsx
+++ b/GUI + Reviews/202512/CAC Family.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9A1EFEE3-E434-4303-B09D-6862EF0D52C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F294F1C-A3F2-40A7-805E-5FC22462832A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A1EFEE3-E434-4303-B09D-6862EF0D52C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29055" yWindow="1200" windowWidth="28905" windowHeight="14850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PX1" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="431">
   <si>
     <t>Company</t>
   </si>
@@ -1339,9 +1339,6 @@
   </si>
   <si>
     <t>North Atlantic En.</t>
-  </si>
-  <si>
-    <t>ISIN Code</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2633,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2665,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>122</v>
